--- a/ApolloQA/Data/RatingManual/SC/VA00066.ClassCode_StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00066.ClassCode_StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCode_StatedValueFactors" sheetId="1" r:id="R688a0fb1f3e64921"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCode_StatedValueFactors" sheetId="1" r:id="R853d4331774a420a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>507</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>508</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3109,6 +3151,20 @@
         <x:v>509</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>511</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -4649,6 +4719,20 @@
         <x:v>513</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0187</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -5419,6 +5503,20 @@
         <x:v>514</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -6186,6 +6284,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
@@ -6959,6 +7071,20 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8724</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -7729,6 +7855,20 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8724</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -8499,6 +8639,20 @@
         <x:v>519</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -9269,6 +9423,20 @@
         <x:v>520</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -10039,6 +10207,20 @@
         <x:v>535</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9621</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -10809,6 +10991,20 @@
         <x:v>536</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -11579,6 +11775,20 @@
         <x:v>537</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -12346,6 +12556,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>538</x:v>
       </x:c>
       <x:c t="str">
@@ -13119,6 +13343,20 @@
         <x:v>538</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -13889,6 +14127,20 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8724</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -14659,6 +14911,20 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -15429,6 +15695,20 @@
         <x:v>542</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9157</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -16199,6 +16479,20 @@
         <x:v>544</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9825</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -16969,6 +17263,20 @@
         <x:v>545</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0136</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -17739,6 +18047,20 @@
         <x:v>546</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0775</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -18506,6 +18828,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7918</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>547</x:v>
       </x:c>
       <x:c t="str">
@@ -19279,6 +19615,20 @@
         <x:v>547</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7918</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -20049,6 +20399,20 @@
         <x:v>548</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -20819,6 +21183,20 @@
         <x:v>549</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -21589,6 +21967,20 @@
         <x:v>550</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -22359,6 +22751,20 @@
         <x:v>551</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -23129,6 +23535,20 @@
         <x:v>552</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -23899,6 +24319,20 @@
         <x:v>553</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -24666,6 +25100,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>554</x:v>
       </x:c>
       <x:c t="str">
@@ -25439,6 +25887,20 @@
         <x:v>554</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -26209,6 +26671,20 @@
         <x:v>555</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -26979,6 +27455,20 @@
         <x:v>556</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -27749,6 +28239,20 @@
         <x:v>557</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -28519,6 +29023,20 @@
         <x:v>558</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -29289,6 +29807,20 @@
         <x:v>559</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0187</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -30059,6 +30591,20 @@
         <x:v>560</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0377</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -30826,6 +31372,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>561</x:v>
       </x:c>
       <x:c t="str">
@@ -31599,6 +32159,20 @@
         <x:v>561</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
       <x:c t="str">
@@ -32369,6 +32943,20 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
       <x:c t="str">
@@ -33139,6 +33727,20 @@
         <x:v>565</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
       <x:c t="str">
@@ -33909,6 +34511,20 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9157</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
       <x:c t="str">
@@ -34679,6 +35295,20 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9825</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
       <x:c t="str">
@@ -35449,6 +36079,20 @@
         <x:v>569</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$19,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$20,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
       <x:c t="str">
@@ -36219,6 +36863,20 @@
         <x:v>598</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$11,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$12,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
       <x:c t="str">
@@ -36986,6 +37644,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>599</x:v>
       </x:c>
       <x:c t="str">
@@ -37749,6 +38421,20 @@
       </x:c>
       <x:c t="str">
         <x:v>$425,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
